--- a/2.1.高钾.xlsx
+++ b/2.1.高钾.xlsx
@@ -564,7 +564,7 @@
         <v>0.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         <v>0.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         <v>0.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -886,28 +886,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.63</v>
+        <v>59.01</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12.53</v>
       </c>
       <c r="E9" t="n">
-        <v>1.07</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>6.16</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3.24</v>
+        <v>4.73</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.61</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -938,37 +938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.02</v>
+        <v>62.47</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="D10" t="n">
-        <v>0.59</v>
+        <v>12.28</v>
       </c>
       <c r="E10" t="n">
-        <v>0.62</v>
+        <v>8.23</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="G10" t="n">
-        <v>1.32</v>
+        <v>9.23</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>0.47</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.77</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.92</v>
+        <v>14.52</v>
       </c>
       <c r="E11" t="n">
-        <v>0.21</v>
+        <v>8.27</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8100000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="I11" t="n">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1042,28 +1042,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.29000000000001</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.01</v>
+        <v>9.42</v>
       </c>
       <c r="E12" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>1.46</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.15</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1094,37 +1094,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.01</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.53</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.699999999999999</v>
+        <v>4.71</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="G13" t="n">
-        <v>6.16</v>
+        <v>6.19</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>2.37</v>
       </c>
       <c r="I13" t="n">
-        <v>4.73</v>
+        <v>3.28</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1146,37 +1146,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.47</v>
+        <v>89.59399999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>12.28</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="E14" t="n">
-        <v>8.23</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.23</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.347</v>
       </c>
       <c r="I14" t="n">
-        <v>0.47</v>
+        <v>1.206</v>
       </c>
       <c r="J14" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>65.18000000000001</v>
+        <v>89.59399999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>14.52</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="E15" t="n">
-        <v>8.27</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="F15" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.18</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.42</v>
+        <v>0.347</v>
       </c>
       <c r="I15" t="n">
-        <v>1.07</v>
+        <v>1.206</v>
       </c>
       <c r="J15" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1250,28 +1250,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.45999999999999</v>
+        <v>89.59399999999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.42</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.206</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1302,49 +1302,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.68000000000001</v>
+        <v>89.59399999999999</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="E17" t="n">
-        <v>4.71</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="F17" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.19</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2.37</v>
+        <v>0.347</v>
       </c>
       <c r="I17" t="n">
-        <v>3.28</v>
+        <v>1.206</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1354,28 +1354,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.34999999999999</v>
+        <v>89.59399999999999</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.74</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>1.66</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="I18" t="n">
-        <v>0.55</v>
+        <v>1.206</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1406,28 +1406,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.72</v>
+        <v>89.59399999999999</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1499999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.05500000000000002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.51</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.347</v>
       </c>
       <c r="I19" t="n">
-        <v>1.54</v>
+        <v>1.206</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
